--- a/static/assets/demo_main.xlsx
+++ b/static/assets/demo_main.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lang\sih\src\static\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB73ADF-C375-41E4-96F0-4E8DA4BDF1FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D708BEFC-44C9-488D-BFC0-76D7354FDF62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11496" yWindow="0" windowWidth="11640" windowHeight="12336" xr2:uid="{18BA3294-E604-4015-A4B2-BBBA36CEA57F}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{18BA3294-E604-4015-A4B2-BBBA36CEA57F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t>Faculty Name</t>
   </si>
@@ -39,21 +39,9 @@
     <t>Dr. Ashish Khanna</t>
   </si>
   <si>
-    <t>Retraction Note: Early diagnosis of COVID-19-affected patients based on X-ray and computed tomography images using deep learning algorithm</t>
-  </si>
-  <si>
-    <t>Retraction Note: Usability feature extraction using modified crow search algorithm: a novel approach</t>
-  </si>
-  <si>
-    <t>Retraction Note: A novel deep learning-based multi-model ensemble method for the prediction of neuromuscular disorders</t>
-  </si>
-  <si>
     <t>Enhancing Consumer Electronics in Healthcare 4.0: Integrating Passive FBG Sensor and IoMT Technology for Remote HRV Monitoring</t>
   </si>
   <si>
-    <t>IoT‐Driven Predictive Maintenance Approach in Industry 4.0: A Fiber Bragg Grating (FBG) Sensor Application</t>
-  </si>
-  <si>
     <t>Robot-Assisted Video Endoscopic Inguinal Lymph Node Dissection for Penile Cancer: An Indian Multicenter Experience</t>
   </si>
   <si>
@@ -81,9 +69,6 @@
     <t>https://pubmed.ncbi.nlm.nih.gov/32904395/</t>
   </si>
   <si>
-    <t>https://www.researchgate.net/publication/327100282_RETRACTED_ARTICLE_Usability_feature_extraction_using_modified_crow_search_algorithm_a_novel_approach</t>
-  </si>
-  <si>
     <t>https://www.researchgate.net/publication/329200670_RETRACTED_ARTICLE_A_novel_deep_learning-based_multi-model_ensemble_method_for_the_prediction_of_neuromuscular_disorders</t>
   </si>
   <si>
@@ -117,21 +102,12 @@
     <t>The study investigates the use of deep learning algorithms to diagnose COVID-19 from chest X-ray and computed tomography (CT) images, aiming for early detection of the virus. Traditional diagnostic methods, like reverse transcription-polymerase chain reaction (RT-PCR) tests, have limitations in terms of speed and availability. The research proposes a model trained on radiographic data to identify COVID-19 infections with improved accuracy and speed. This automated diagnostic approach has the potential to ease the burden on healthcare systems, particularly in regions with limited testing resources. The model could serve as a supplemental tool to enhance early diagnosis and optimize treatment strategies during the pandemic.</t>
   </si>
   <si>
-    <t>It seems I'm unable to access the page directly. However, based on the title, this paper originally proposed a novel approach to usability feature extraction using a modified crow search algorithm. The crow search algorithm is a nature-inspired metaheuristic technique, and the study likely aimed to enhance usability testing by optimizing feature extraction processes. Since the paper has been retracted, the validity of its claims and results is in question. If you need specific details, it might be best to consult the retraction notice or other sources for further clarification.</t>
-  </si>
-  <si>
     <t>This study proposes a novel deep learning-based multi-model ensemble method for predicting neuromuscular disorders. The approach combines the strengths of multiple deep learning models to improve the accuracy of predicting these complex disorders. The ensemble method leverages the strengths of convolutional neural networks (CNNs), recurrent neural networks (RNNs), and long short-term memory (LSTM) networks to analyze various data types, including medical images, clinical data, and genomic data. The proposed method is evaluated on a dataset of patients with neuromuscular disorders and demonstrates superior performance compared to individual models. The results show improved accuracy, sensitivity, and specificity in predicting neuromuscular disorders, highlighting the potential of this approach in clinical practice. However, please note that the article has been retracted, indicating that the findings may not be reliable or valid.</t>
   </si>
   <si>
     <t>This study explores the integration of passive Fiber Bragg Grating (FBG) sensors and Internet of Medical Things (IoMT) technology to enhance remote heart rate variability (HRV) monitoring in healthcare. The proposed system utilizes FBG sensors to measure physiological parameters, such as heart rate and blood pressure, and transmits the data to a cloud-based platform via IoMT technology. The system enables real-time remote monitoring of HRV, allowing for early detection of cardiovascular diseases and stress-related disorders. The authors demonstrate the feasibility and accuracy of the proposed system, highlighting its potential to revolutionize remote healthcare monitoring. The study contributes to the advancement of consumer electronics in healthcare, enabling personalized and preventive medicine.</t>
   </si>
   <si>
-    <t>https://www.sciencedirect.com/science/article/pii/S1110016823004945</t>
-  </si>
-  <si>
-    <t>This article presents a study on the development of a novel deep learning model for predicting the mechanical properties of 3D-printed porous titanium alloys. The authors propose a multi-scale convolutional neural network (CNN) architecture that integrates microstructural and mechanical data to predict the yield strength, ultimate tensile strength, and elastic modulus of 3D-printed titanium alloys. The model is trained on a dataset of microstructural images and corresponding mechanical properties, and its performance is evaluated against experimental results. The study demonstrates the effectiveness of the proposed deep learning model in accurately predicting the mechanical properties of 3D-printed titanium alloys, which can aid in the design and optimization of porous titanium alloys for biomedical applications.</t>
-  </si>
-  <si>
     <t>This study investigates the effects of a mindfulness-based stress reduction (MBSR) program on symptoms of anxiety and depression in patients with chronic pain. A randomized controlled trial was conducted, with 100 participants assigned to either an MBSR group or a wait-list control group. The MBSR program consisted of eight weekly sessions, and participants' symptoms of anxiety and depression were assessed at pre-intervention, post-intervention, and follow-up. The results show that the MBSR group demonstrated significant reductions in symptoms of anxiety and depression compared to the control group. Additionally, the MBSR group showed improvements in sleep quality and life satisfaction. The study concludes that MBSR is a effective intervention for reducing symptoms of anxiety and depression in patients with chronic pain, and highlights the importance of mindfulness-based interventions in pain management.</t>
   </si>
   <si>
@@ -148,6 +124,24 @@
   </si>
   <si>
     <t>Unfortunately, it seems there is no content provided for me to summarize. Please provide the scraped content from the publication site, and I'll create a concise abstract for you!</t>
+  </si>
+  <si>
+    <t>Early diagnosis of COVID-19-affected patients based on X-ray and computed tomography images using deep learning algorithm</t>
+  </si>
+  <si>
+    <t>A novel deep learning-based multi-model ensemble method for the prediction of neuromuscular disorders</t>
+  </si>
+  <si>
+    <t>Dr. John Doe</t>
+  </si>
+  <si>
+    <t>Dr. Emma Johnson</t>
+  </si>
+  <si>
+    <t>Dr. William Taylor</t>
+  </si>
+  <si>
+    <t>Dr. Sarah Lee</t>
   </si>
 </sst>
 </file>
@@ -525,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{305A5E06-4426-4B18-A408-C41EBB878DFE}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -551,10 +545,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -562,16 +556,16 @@
         <v>3</v>
       </c>
       <c r="B2" s="1">
-        <v>2024</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>2022</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -579,16 +573,16 @@
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>2024</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
+        <v>2021</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -598,172 +592,141 @@
       <c r="B4" s="1">
         <v>2024</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
+      <c r="C4" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
+      <c r="A5" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="B5" s="1">
         <v>2024</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
+      <c r="A6" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="B6" s="1">
         <v>2024</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1">
-        <v>2024</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
         <v>21</v>
       </c>
-      <c r="E7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="1">
-        <v>2024</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="1">
-        <v>2023</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>2023</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>3</v>
+      <c r="A11" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="B11" s="1">
         <v>2022</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="1">
-        <v>2022</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="1">
-        <v>2022</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{2FFDA134-7E8F-4B34-A945-6603F894B4B7}"/>
-    <hyperlink ref="D9" r:id="rId2" xr:uid="{E18D46A4-1A70-415E-9E22-98AC9F401117}"/>
-    <hyperlink ref="D11" r:id="rId3" xr:uid="{477150EC-356D-49D5-A099-50B2B5BD249A}"/>
+    <hyperlink ref="D7" r:id="rId2" xr:uid="{E18D46A4-1A70-415E-9E22-98AC9F401117}"/>
+    <hyperlink ref="D9" r:id="rId3" xr:uid="{477150EC-356D-49D5-A099-50B2B5BD249A}"/>
+    <hyperlink ref="D3" r:id="rId4" xr:uid="{A5C8A637-FA11-4C18-8728-321748095276}"/>
+    <hyperlink ref="D5" r:id="rId5" xr:uid="{D729547C-12F0-41AA-AD6D-8AB17A20F445}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>